--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1156678.209354285</v>
+        <v>1154159.540939806</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11042692.88845252</v>
+        <v>11042692.88845253</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>371.4742483664676</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.14559060174004</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>110.3838034696614</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.45168336850072</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>84.34328128413655</v>
       </c>
       <c r="H5" t="n">
-        <v>53.43995086960428</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>195.3686404447768</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>103.258801432719</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>246.1225519222243</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>96.42217904608307</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487851</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.391312019549431</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>336.1093067551881</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114115</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035337</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>35.86187249378478</v>
+        <v>131.7926428886253</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411799</v>
+        <v>319.4395745411777</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.4796718176198</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>56.11174229723431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>93.62264337260652</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>21.90286287505447</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>90.1486390805815</v>
       </c>
       <c r="H22" t="n">
-        <v>122.411605374967</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573441</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788185655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>24.27150084979074</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>75.00788511618104</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.3986907513285</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705875</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4837053550534</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>198.5094282323938</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>97.54185816719402</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.8396132741369</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0177171766885</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8913819999783</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.55695577160915</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>131.294460344658</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060374</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.346298904865</v>
+        <v>1576.854514966046</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>1207.891998025634</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1207.891998025634</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1207.891998025634</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>796.9060932360269</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2541.990246984256</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2541.990246984256</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2288.409186248436</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1957.346298904865</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>1957.346298904865</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X2" t="n">
-        <v>1957.346298904865</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y2" t="n">
-        <v>1957.346298904865</v>
+        <v>1963.454355030168</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>944.587906063767</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>775.6517231358602</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>625.5350837235244</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>477.6219901411313</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>330.7320426432209</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>162.7455779514995</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1069.354794673463</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1069.354794673463</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>779.9376246365028</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>551.9480737384855</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.9480737384855</v>
+        <v>1126.236370894007</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.8767859460534</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C5" t="n">
-        <v>527.8767859460534</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8767859460534</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8767859460534</v>
+        <v>547.4279249779506</v>
       </c>
       <c r="F5" t="n">
-        <v>520.9312851968499</v>
+        <v>136.4420201883431</v>
       </c>
       <c r="G5" t="n">
-        <v>105.2265349211388</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,7 +4583,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4595,7 +4595,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
         <v>1975.31341879663</v>
@@ -4607,10 +4607,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218651</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460534</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,34 +4632,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744475</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N6" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4753,22 +4753,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.104059019167</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1149.985721523005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>895.3012333171177</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W7" t="n">
-        <v>605.8840632801572</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X7" t="n">
-        <v>377.8945123821399</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.1019332386098</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2760.728767215212</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2760.728767215212</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518377</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395019</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571088</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591984</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339174</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088492</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153514</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009984</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>1921.858672753467</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1921.858672753467</v>
       </c>
       <c r="D11" t="n">
         <v>1582.354322495702</v>
@@ -5033,58 +5033,58 @@
         <v>371.0047194374971</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469169</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469169</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420301</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301222</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878106</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.18066176542</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687096</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856277</v>
+        <v>3535.048359856278</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882235</v>
+        <v>3835.937563882236</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234584</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455654</v>
+        <v>3826.588132455656</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971434</v>
+        <v>3622.786021971436</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604042</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260472</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990357</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729277</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2311.998004729277</v>
+        <v>1921.858672753467</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469169</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792124</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376494</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843925</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282812</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279347</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145096</v>
+        <v>2428.043574125662</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.97904598525</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826842</v>
+        <v>692.286083876756</v>
       </c>
       <c r="C13" t="n">
-        <v>114.7351798547772</v>
+        <v>523.3499009488492</v>
       </c>
       <c r="D13" t="n">
-        <v>114.7351798547772</v>
+        <v>523.3499009488492</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469169</v>
+        <v>390.226019243167</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469169</v>
+        <v>390.226019243167</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469169</v>
+        <v>222.7461217197097</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469169</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469169</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600395</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457696</v>
+        <v>368.4550473457699</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888905</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779219</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542992</v>
@@ -5215,34 +5215,34 @@
         <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082518</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906985</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.29432245703</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897319</v>
+        <v>1866.818336991391</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691432</v>
+        <v>1612.133848785504</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544713</v>
+        <v>1322.716678748543</v>
       </c>
       <c r="X13" t="n">
-        <v>686.112406756454</v>
+        <v>1094.727127850526</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129239</v>
+        <v>873.9345487069958</v>
       </c>
     </row>
     <row r="14">
@@ -5270,52 +5270,52 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126175</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.62987785606</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
         <v>3093.963640945777</v>
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.5402036081964</v>
+        <v>1015.754398433617</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6040206802894</v>
+        <v>846.8182155057104</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679537</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855605</v>
+        <v>548.7884825109817</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876502</v>
+        <v>401.8985350130713</v>
       </c>
       <c r="G16" t="n">
         <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156341</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861978</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.51642936867</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.837647083052</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397779</v>
+        <v>2071.440215683395</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.076945191892</v>
+        <v>1935.602163342365</v>
       </c>
       <c r="W16" t="n">
-        <v>1307.659775154931</v>
+        <v>1646.184993305405</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.981247581966</v>
+        <v>1418.195442407387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.188668438436</v>
+        <v>1197.402863263857</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>800.5007694647279</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121639</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121639</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121639</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142537</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>982.1492342949676</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327647</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327647</v>
+        <v>853.5941094450261</v>
       </c>
       <c r="D22" t="n">
-        <v>613.6374994204289</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E22" t="n">
-        <v>613.6374994204289</v>
+        <v>555.5643764502972</v>
       </c>
       <c r="F22" t="n">
-        <v>466.7475519225187</v>
+        <v>408.674428952387</v>
       </c>
       <c r="G22" t="n">
-        <v>299.5514526373987</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630045</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,28 +5984,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876752</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597683</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597683</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597683</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359462</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.340348461445</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179149</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.345997432835</v>
+        <v>954.2476448606604</v>
       </c>
       <c r="C28" t="n">
-        <v>923.4098145049279</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>773.2931750925922</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>625.380081510199</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>478.4901340122888</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>311.2940347271688</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>169.5822035693669</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,13 +6385,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.776592304622</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.787041406605</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.994462263074</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327645</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799073</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675715</v>
+        <v>637.9025067654816</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851784</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F31" t="n">
         <v>343.0994656851784</v>
@@ -6616,13 +6616,13 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630042</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851665</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C34" t="n">
-        <v>696.7084350851665</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133955</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310024</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855603</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199801</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993914</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058936</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154062</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,16 +6968,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508403</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,16 +7193,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466574</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400742</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400713</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400713</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7439,22 +7439,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>956.9553291057243</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>788.0191461778174</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654816</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830886</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2404.986360578635</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2185.384895601576</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945775</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739888</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702927</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.21845980491</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613794</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122183</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54.95314511566511</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.3425296439311</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>18.57373486549483</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323805</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>110.5720901527844</v>
+        <v>14.64131975794385</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034046</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146351</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>50.29152613728917</v>
+        <v>50.29152613729133</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.6579715062082</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>169.5979130918028</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>73.62417772602132</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>143.6212754172144</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>75.37549921168736</v>
       </c>
       <c r="H22" t="n">
-        <v>17.88310747125692</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347456</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>142.9753202488371</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.257951202384476</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.8481303472993</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.2691783702295</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.131767663158939</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>18.89602209489449</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.8635921600942</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.7450400779579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392193934</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>41.54258064659084</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>139.4693302300354</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>86.1109899826303</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516651</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873970.1565286459</v>
+        <v>873970.156528646</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>951078.0032198469</v>
+        <v>951078.0032198468</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809179</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956326.5261809176</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956326.5261809174</v>
+        <v>956326.5261809175</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956326.5261809175</v>
+        <v>956326.5261809174</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876631</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185143</v>
+        <v>143114.1392185144</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051398</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
         <v>37377.3285511529</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848965</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8628.13543443824</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26451,13 +26451,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744275</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214697</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-871112.6753207848</v>
+        <v>-871112.6753207846</v>
       </c>
       <c r="C6" t="n">
-        <v>243639.1082551355</v>
+        <v>243639.108255135</v>
       </c>
       <c r="D6" t="n">
-        <v>83623.64550713649</v>
+        <v>83623.64550713653</v>
       </c>
       <c r="E6" t="n">
-        <v>185971.2447725635</v>
+        <v>185761.2805287187</v>
       </c>
       <c r="F6" t="n">
-        <v>186156.6693023706</v>
+        <v>186110.7643068056</v>
       </c>
       <c r="G6" t="n">
-        <v>343092.2723705235</v>
+        <v>343057.5344450875</v>
       </c>
       <c r="H6" t="n">
-        <v>354259.5086061022</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="I6" t="n">
-        <v>354259.508606102</v>
+        <v>354224.7706806666</v>
       </c>
       <c r="J6" t="n">
-        <v>186654.3307961197</v>
+        <v>186619.592870684</v>
       </c>
       <c r="K6" t="n">
-        <v>354259.5086061023</v>
+        <v>354224.7706806664</v>
       </c>
       <c r="L6" t="n">
-        <v>305965.5385979114</v>
+        <v>305930.8006724758</v>
       </c>
       <c r="M6" t="n">
-        <v>316882.1800549494</v>
+        <v>316847.4421295135</v>
       </c>
       <c r="N6" t="n">
-        <v>310477.1020476126</v>
+        <v>310442.3641221771</v>
       </c>
       <c r="O6" t="n">
-        <v>351236.2106288776</v>
+        <v>351201.4727034419</v>
       </c>
       <c r="P6" t="n">
-        <v>354259.5086061022</v>
+        <v>354224.7706806666</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086461</v>
+        <v>981.3883278086465</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26969,22 +26969,22 @@
         <v>122.3935669012565</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218313</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063534</v>
+        <v>149.9868724063537</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173609</v>
+        <v>178.75696251736</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
         <v>149.9868724063534</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173609</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063534</v>
+        <v>149.9868724063537</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173609</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>40.07345440648635</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.3066247970543</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>36.86770568546743</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>241.7754707526999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>327.2044214888174</v>
       </c>
       <c r="H5" t="n">
-        <v>247.5786016928011</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>25.38005555243518</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>148.878841891109</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>4.872620036677716</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>289.8157596099705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944226</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.816704240978588e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29256,7 +29256,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>6.02540239924565e-12</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.114016751543474e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.694822225952521e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-2.262368070660159e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-7.026874894351142e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.940457167618687e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -31279,46 +31279,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31449,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485643</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508985</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307174</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726049</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216962</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857414</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898376</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294397</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615128</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895581</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
         <v>306.1064947356978</v>
@@ -31789,10 +31789,10 @@
         <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475341</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188513</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969419</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
         <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596466</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
         <v>246.3335823783038</v>
@@ -31844,28 +31844,28 @@
         <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735542</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845322</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147131</v>
+        <v>678.1177801147132</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431802</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205464</v>
+        <v>266.1421801896219</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071841</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.4296328569758</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780656</v>
@@ -31911,10 +31911,10 @@
         <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737172</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691782</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
         <v>154.541773283691</v>
@@ -31938,16 +31938,16 @@
         <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916777</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570598</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929607</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826892</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765137</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>615.6579511813131</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>304.6326742391975</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040311</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276243</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517089</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584687</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932467</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077529</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062433</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151086</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156564</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116371</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
         <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>2.98482469367996</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
         <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313799</v>
+        <v>546.77606803138</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987357</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062162</v>
+        <v>132.1677727752916</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211626</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701818</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
         <v>231.690115036091</v>
@@ -35574,19 +35574,19 @@
         <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788211</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
         <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190452</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
         <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998335</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>484.3162390979798</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010429</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066273</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
